--- a/Code/Results/Cases/Case_2_243/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_243/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9973421933710067</v>
+        <v>1.024277781602758</v>
       </c>
       <c r="D2">
-        <v>1.020237777886369</v>
+        <v>1.034723261155134</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="F2">
-        <v>1.024205493010463</v>
+        <v>1.043143036014878</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044043732471768</v>
+        <v>1.033020092456124</v>
       </c>
       <c r="J2">
-        <v>1.019602690625247</v>
+        <v>1.02945329371916</v>
       </c>
       <c r="K2">
-        <v>1.031422188305944</v>
+        <v>1.037521916480203</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
       <c r="M2">
-        <v>1.035337600139535</v>
+        <v>1.045917733870858</v>
       </c>
       <c r="N2">
-        <v>1.010506420474363</v>
+        <v>1.013865946968037</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.00115783635631</v>
+        <v>1.0250911147939</v>
       </c>
       <c r="D3">
-        <v>1.023058303934893</v>
+        <v>1.035345828564626</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="F3">
-        <v>1.02753188694108</v>
+        <v>1.043897636448387</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04484364467324</v>
+        <v>1.033133606290964</v>
       </c>
       <c r="J3">
-        <v>1.021616987273375</v>
+        <v>1.02990616939188</v>
       </c>
       <c r="K3">
-        <v>1.033404411233496</v>
+        <v>1.037954227958405</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202692</v>
       </c>
       <c r="M3">
-        <v>1.037824206398249</v>
+        <v>1.046483456819377</v>
       </c>
       <c r="N3">
-        <v>1.011180839409496</v>
+        <v>1.014016713643455</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.003581792217763</v>
+        <v>1.025618015520876</v>
       </c>
       <c r="D4">
-        <v>1.024852156087415</v>
+        <v>1.035749046332516</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="F4">
-        <v>1.029649052686048</v>
+        <v>1.044386633226335</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045341759516054</v>
+        <v>1.033205885101957</v>
       </c>
       <c r="J4">
-        <v>1.022894317048203</v>
+        <v>1.030199175446401</v>
       </c>
       <c r="K4">
-        <v>1.034659612083478</v>
+        <v>1.038233645832237</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668345</v>
       </c>
       <c r="M4">
-        <v>1.039402339088997</v>
+        <v>1.046849572375537</v>
       </c>
       <c r="N4">
-        <v>1.011608400925685</v>
+        <v>1.014114227644884</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.004590371657692</v>
+        <v>1.025839671246092</v>
       </c>
       <c r="D5">
-        <v>1.025599004834827</v>
+        <v>1.035918646949525</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9945786998346017</v>
       </c>
       <c r="F5">
-        <v>1.030530901087161</v>
+        <v>1.044592377715559</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045546571500137</v>
+        <v>1.033235989768147</v>
       </c>
       <c r="J5">
-        <v>1.023425223010261</v>
+        <v>1.030322345567013</v>
       </c>
       <c r="K5">
-        <v>1.035180877299921</v>
+        <v>1.038351035893999</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.997117960005301</v>
       </c>
       <c r="M5">
-        <v>1.040058573004801</v>
+        <v>1.047003498804661</v>
       </c>
       <c r="N5">
-        <v>1.011786083541631</v>
+        <v>1.014155211982999</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.004759112927555</v>
+        <v>1.025876896768096</v>
       </c>
       <c r="D6">
-        <v>1.025723982017739</v>
+        <v>1.035947128736262</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9946255319796338</v>
       </c>
       <c r="F6">
-        <v>1.030678492417506</v>
+        <v>1.044626933043065</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045580692784675</v>
+        <v>1.033241027955128</v>
       </c>
       <c r="J6">
-        <v>1.023514012078934</v>
+        <v>1.030343025770135</v>
       </c>
       <c r="K6">
-        <v>1.035268027597738</v>
+        <v>1.038370741632611</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673453</v>
       </c>
       <c r="M6">
-        <v>1.040168339592812</v>
+        <v>1.047029344350973</v>
       </c>
       <c r="N6">
-        <v>1.011815797608931</v>
+        <v>1.01416209280164</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.003595309550378</v>
+        <v>1.025620976721397</v>
       </c>
       <c r="D7">
-        <v>1.024862163905981</v>
+        <v>1.035751312201414</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907982488</v>
       </c>
       <c r="F7">
-        <v>1.029660867944771</v>
+        <v>1.044389381727955</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045344514191891</v>
+        <v>1.033206288468367</v>
       </c>
       <c r="J7">
-        <v>1.022901434743526</v>
+        <v>1.030200821291028</v>
       </c>
       <c r="K7">
-        <v>1.034666602296718</v>
+        <v>1.038235214709175</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462087</v>
       </c>
       <c r="M7">
-        <v>1.039411135831444</v>
+        <v>1.046851629105184</v>
       </c>
       <c r="N7">
-        <v>1.01161078317527</v>
+        <v>1.014114775321646</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.99864123051551</v>
+        <v>1.024552522004941</v>
       </c>
       <c r="D8">
-        <v>1.021197566354767</v>
+        <v>1.034933581924727</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674301</v>
       </c>
       <c r="F8">
-        <v>1.025337098313404</v>
+        <v>1.043397906462511</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.0443181426457</v>
+        <v>1.033058697278089</v>
       </c>
       <c r="J8">
-        <v>1.020288921340509</v>
+        <v>1.029606351597084</v>
       </c>
       <c r="K8">
-        <v>1.032097859011325</v>
+        <v>1.037668082856387</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.995817528259106</v>
       </c>
       <c r="M8">
-        <v>1.036184460543462</v>
+        <v>1.046108910176356</v>
       </c>
       <c r="N8">
-        <v>1.010736203352206</v>
+        <v>1.013916907713642</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9895513271279361</v>
+        <v>1.022674590776461</v>
       </c>
       <c r="D9">
-        <v>1.014492219489936</v>
+        <v>1.033495593468632</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.017437557370063</v>
+        <v>1.041656405687771</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042357096249894</v>
+        <v>1.032789676328352</v>
       </c>
       <c r="J9">
-        <v>1.015478528141922</v>
+        <v>1.028558610878733</v>
       </c>
       <c r="K9">
-        <v>1.02735446628314</v>
+        <v>1.03666636264437</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.030253918556958</v>
+        <v>1.044800641281617</v>
       </c>
       <c r="N9">
-        <v>1.009125062775718</v>
+        <v>1.013567937647762</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9832265749451452</v>
+        <v>1.021425981102837</v>
       </c>
       <c r="D10">
-        <v>1.009842463930138</v>
+        <v>1.032539036622451</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>1.011966963870595</v>
+        <v>1.040499298393637</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040942444777583</v>
+        <v>1.032604356429939</v>
       </c>
       <c r="J10">
-        <v>1.0121218634588</v>
+        <v>1.027860053676367</v>
       </c>
       <c r="K10">
-        <v>1.024036254880545</v>
+        <v>1.035997046557271</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.026123461167512</v>
+        <v>1.043928898153579</v>
       </c>
       <c r="N10">
-        <v>1.008000399249996</v>
+        <v>1.013335115525263</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.980419671931966</v>
+        <v>1.020886134088841</v>
       </c>
       <c r="D11">
-        <v>1.007783429165726</v>
+        <v>1.032125359690579</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>1.009545984360695</v>
+        <v>1.03999920791617</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040303291500642</v>
+        <v>1.032522703198482</v>
       </c>
       <c r="J11">
-        <v>1.010630327658803</v>
+        <v>1.02755757195652</v>
       </c>
       <c r="K11">
-        <v>1.022560039152214</v>
+        <v>1.035706886867343</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.024290095134049</v>
+        <v>1.043551548783923</v>
       </c>
       <c r="N11">
-        <v>1.00750057993105</v>
+        <v>1.013234265210222</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9793663189978228</v>
+        <v>1.020685734174174</v>
       </c>
       <c r="D12">
-        <v>1.007011475082021</v>
+        <v>1.031971781515322</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>1.008638549968725</v>
+        <v>1.039813596101326</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040061780665766</v>
+        <v>1.03249216264895</v>
       </c>
       <c r="J12">
-        <v>1.010070352673081</v>
+        <v>1.027445217812993</v>
       </c>
       <c r="K12">
-        <v>1.022005567921336</v>
+        <v>1.035599058792219</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.023602099488032</v>
+        <v>1.043411404372365</v>
       </c>
       <c r="N12">
-        <v>1.00731292111347</v>
+        <v>1.013196799854351</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9795927611874723</v>
+        <v>1.020728715028663</v>
       </c>
       <c r="D13">
-        <v>1.00717738943135</v>
+        <v>1.032004720910188</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>1.008833573252876</v>
+        <v>1.039853403912612</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040113772878128</v>
+        <v>1.032498723232991</v>
       </c>
       <c r="J13">
-        <v>1.010190742421522</v>
+        <v>1.027469318090278</v>
       </c>
       <c r="K13">
-        <v>1.022124785328705</v>
+        <v>1.035622190512851</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.023749998135563</v>
+        <v>1.043441464893821</v>
       </c>
       <c r="N13">
-        <v>1.007353266501692</v>
+        <v>1.01320483652173</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9803328235720302</v>
+        <v>1.020869566444035</v>
       </c>
       <c r="D14">
-        <v>1.007719766446713</v>
+        <v>1.03211266323035</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>1.00947114432204</v>
+        <v>1.039983862234626</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040283412421791</v>
+        <v>1.032520183005416</v>
       </c>
       <c r="J14">
-        <v>1.01058416275987</v>
+        <v>1.027548284699266</v>
       </c>
       <c r="K14">
-        <v>1.022514332927171</v>
+        <v>1.035697974773524</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.024233369611662</v>
+        <v>1.043539963986183</v>
       </c>
       <c r="N14">
-        <v>1.007485109322233</v>
+        <v>1.013231168412693</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9807873615349438</v>
+        <v>1.020956366040293</v>
       </c>
       <c r="D15">
-        <v>1.008052988574299</v>
+        <v>1.032179180696573</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>1.009862879299047</v>
+        <v>1.040064261065044</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040387386311221</v>
+        <v>1.032533377153811</v>
       </c>
       <c r="J15">
-        <v>1.010825766145261</v>
+        <v>1.027596938809689</v>
       </c>
       <c r="K15">
-        <v>1.02275352584348</v>
+        <v>1.035744661395731</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.024530254782001</v>
+        <v>1.043600655222987</v>
       </c>
       <c r="N15">
-        <v>1.007566074190763</v>
+        <v>1.013247391703529</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.983411380759131</v>
+        <v>1.021461826167857</v>
       </c>
       <c r="D16">
-        <v>1.009978129987107</v>
+        <v>1.032566502089342</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>1.012126508759283</v>
+        <v>1.040532507836093</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040984294064392</v>
+        <v>1.032609745870953</v>
       </c>
       <c r="J16">
-        <v>1.012220030071617</v>
+        <v>1.027880128465123</v>
       </c>
       <c r="K16">
-        <v>1.024133377815741</v>
+        <v>1.036016296430655</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.026244168519164</v>
+        <v>1.043953944289978</v>
       </c>
       <c r="N16">
-        <v>1.008033293880838</v>
+        <v>1.013341807893359</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9850387501023031</v>
+        <v>1.021779105820453</v>
       </c>
       <c r="D17">
-        <v>1.011173305080204</v>
+        <v>1.032809598765559</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>1.01353222323041</v>
+        <v>1.040826481074927</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041351525106121</v>
+        <v>1.03265727335459</v>
       </c>
       <c r="J17">
-        <v>1.013084261260648</v>
+        <v>1.028057766287642</v>
       </c>
       <c r="K17">
-        <v>1.024988221521944</v>
+        <v>1.036186595528224</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>1.027307072050593</v>
+        <v>1.044175586856561</v>
       </c>
       <c r="N17">
-        <v>1.008322880711459</v>
+        <v>1.013401023154667</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9859814172752478</v>
+        <v>1.021964247635334</v>
       </c>
       <c r="D18">
-        <v>1.011866044469743</v>
+        <v>1.032951442840052</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>1.014347142069441</v>
+        <v>1.040998041690161</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04156316563792</v>
+        <v>1.032684859385194</v>
       </c>
       <c r="J18">
-        <v>1.013584695051991</v>
+        <v>1.028161379158533</v>
       </c>
       <c r="K18">
-        <v>1.025483050454246</v>
+        <v>1.036285895072883</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>1.027922736817306</v>
+        <v>1.044304878788895</v>
       </c>
       <c r="N18">
-        <v>1.008490558992367</v>
+        <v>1.013435558832622</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9863017459020299</v>
+        <v>1.0220273893808</v>
       </c>
       <c r="D19">
-        <v>1.012101514915412</v>
+        <v>1.03299981640749</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>1.014624168341782</v>
+        <v>1.041056554796324</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041634898592186</v>
+        <v>1.032694242428378</v>
       </c>
       <c r="J19">
-        <v>1.013754716452251</v>
+        <v>1.028196708384935</v>
       </c>
       <c r="K19">
-        <v>1.025651138428352</v>
+        <v>1.036319748003704</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>1.028131939493013</v>
+        <v>1.044348965906557</v>
       </c>
       <c r="N19">
-        <v>1.008547526073132</v>
+        <v>1.013447333984417</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.984864829711675</v>
+        <v>1.021745056640046</v>
       </c>
       <c r="D20">
-        <v>1.011045529724165</v>
+        <v>1.032783511617724</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>1.013381924013153</v>
+        <v>1.040794931100697</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041312390128954</v>
+        <v>1.032652188161881</v>
       </c>
       <c r="J20">
-        <v>1.01299191739009</v>
+        <v>1.028038707448437</v>
       </c>
       <c r="K20">
-        <v>1.024896898121873</v>
+        <v>1.036168327453562</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.027193480106641</v>
+        <v>1.044151805497126</v>
       </c>
       <c r="N20">
-        <v>1.00829193883464</v>
+        <v>1.013394670284658</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9801151943307174</v>
+        <v>1.020828085795185</v>
       </c>
       <c r="D21">
-        <v>1.007560249249597</v>
+        <v>1.032080874687326</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>1.009283623989308</v>
+        <v>1.039945441516611</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04023357187829</v>
+        <v>1.032513869453609</v>
       </c>
       <c r="J21">
-        <v>1.010468476511497</v>
+        <v>1.027525030962003</v>
       </c>
       <c r="K21">
-        <v>1.02239979215113</v>
+        <v>1.035675659562046</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.024091224237218</v>
+        <v>1.043510957893917</v>
       </c>
       <c r="N21">
-        <v>1.00744634083907</v>
+        <v>1.013223414462976</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9770664825499329</v>
+        <v>1.020252264080576</v>
       </c>
       <c r="D22">
-        <v>1.005327474656961</v>
+        <v>1.031639561951374</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>1.006659383090826</v>
+        <v>1.039412168212454</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039531493471853</v>
+        <v>1.032425683117767</v>
       </c>
       <c r="J22">
-        <v>1.008847327057159</v>
+        <v>1.027202068805302</v>
       </c>
       <c r="K22">
-        <v>1.020794126885191</v>
+        <v>1.035365612020102</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.022100060662924</v>
+        <v>1.043108147832231</v>
       </c>
       <c r="N22">
-        <v>1.006903046448244</v>
+        <v>1.013115710096058</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9786887515788015</v>
+        <v>1.020557449786283</v>
       </c>
       <c r="D23">
-        <v>1.006515135358285</v>
+        <v>1.031873465643722</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>1.008055160197329</v>
+        <v>1.039694786665835</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039905969357711</v>
+        <v>1.032472547756922</v>
       </c>
       <c r="J23">
-        <v>1.009710085967673</v>
+        <v>1.027373276088232</v>
       </c>
       <c r="K23">
-        <v>1.021648774487041</v>
+        <v>1.035530000875299</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>1.023159559446523</v>
+        <v>1.04332167346558</v>
       </c>
       <c r="N23">
-        <v>1.007192186245376</v>
+        <v>1.013172808814125</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9849434370554599</v>
+        <v>1.021760441758365</v>
       </c>
       <c r="D24">
-        <v>1.011103279442089</v>
+        <v>1.032795299123006</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>1.013449853220441</v>
+        <v>1.040809186895105</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041330081441524</v>
+        <v>1.032654486361716</v>
       </c>
       <c r="J24">
-        <v>1.01303365489697</v>
+        <v>1.028047319318482</v>
       </c>
       <c r="K24">
-        <v>1.024938174922621</v>
+        <v>1.036176582112425</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>1.027244820713613</v>
+        <v>1.044162551234261</v>
       </c>
       <c r="N24">
-        <v>1.008305923941274</v>
+        <v>1.013397540884287</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9919462233375729</v>
+        <v>1.023159499008532</v>
       </c>
       <c r="D25">
-        <v>1.016256369326856</v>
+        <v>1.033866985783518</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>1.019514579435327</v>
+        <v>1.042105948281079</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042882615950253</v>
+        <v>1.032860280514781</v>
       </c>
       <c r="J25">
-        <v>1.016747702690433</v>
+        <v>1.028829493792954</v>
       </c>
       <c r="K25">
-        <v>1.028607460711163</v>
+        <v>1.036925602398836</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.031817325601243</v>
+        <v>1.045138790749174</v>
       </c>
       <c r="N25">
-        <v>1.009550226647324</v>
+        <v>1.013658187715893</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_243/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_243/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.024277781602758</v>
+        <v>0.9973421933710067</v>
       </c>
       <c r="D2">
-        <v>1.034723261155134</v>
+        <v>1.02023777788637</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.043143036014878</v>
+        <v>1.024205493010463</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033020092456124</v>
+        <v>1.044043732471768</v>
       </c>
       <c r="J2">
-        <v>1.02945329371916</v>
+        <v>1.019602690625247</v>
       </c>
       <c r="K2">
-        <v>1.037521916480203</v>
+        <v>1.031422188305944</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.045917733870858</v>
+        <v>1.035337600139535</v>
       </c>
       <c r="N2">
-        <v>1.013865946968037</v>
+        <v>1.010506420474363</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.0250911147939</v>
+        <v>1.00115783635631</v>
       </c>
       <c r="D3">
-        <v>1.035345828564626</v>
+        <v>1.023058303934893</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.043897636448387</v>
+        <v>1.02753188694108</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033133606290964</v>
+        <v>1.04484364467324</v>
       </c>
       <c r="J3">
-        <v>1.02990616939188</v>
+        <v>1.021616987273375</v>
       </c>
       <c r="K3">
-        <v>1.037954227958405</v>
+        <v>1.033404411233496</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.046483456819377</v>
+        <v>1.037824206398249</v>
       </c>
       <c r="N3">
-        <v>1.014016713643455</v>
+        <v>1.011180839409496</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.025618015520876</v>
+        <v>1.003581792217762</v>
       </c>
       <c r="D4">
-        <v>1.035749046332516</v>
+        <v>1.024852156087414</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.044386633226335</v>
+        <v>1.029649052686048</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033205885101957</v>
+        <v>1.045341759516054</v>
       </c>
       <c r="J4">
-        <v>1.030199175446401</v>
+        <v>1.022894317048203</v>
       </c>
       <c r="K4">
-        <v>1.038233645832237</v>
+        <v>1.034659612083477</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.046849572375537</v>
+        <v>1.039402339088997</v>
       </c>
       <c r="N4">
-        <v>1.014114227644884</v>
+        <v>1.011608400925685</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.025839671246092</v>
+        <v>1.004590371657693</v>
       </c>
       <c r="D5">
-        <v>1.035918646949525</v>
+        <v>1.025599004834827</v>
       </c>
       <c r="E5">
-        <v>0.9945786998346017</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.044592377715559</v>
+        <v>1.030530901087162</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.033235989768147</v>
+        <v>1.045546571500137</v>
       </c>
       <c r="J5">
-        <v>1.030322345567013</v>
+        <v>1.023425223010261</v>
       </c>
       <c r="K5">
-        <v>1.038351035893999</v>
+        <v>1.035180877299921</v>
       </c>
       <c r="L5">
-        <v>0.997117960005301</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.047003498804661</v>
+        <v>1.040058573004801</v>
       </c>
       <c r="N5">
-        <v>1.014155211982999</v>
+        <v>1.011786083541631</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.025876896768096</v>
+        <v>1.004759112927555</v>
       </c>
       <c r="D6">
-        <v>1.035947128736262</v>
+        <v>1.025723982017738</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796338</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.044626933043065</v>
+        <v>1.030678492417505</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.033241027955128</v>
+        <v>1.045580692784675</v>
       </c>
       <c r="J6">
-        <v>1.030343025770135</v>
+        <v>1.023514012078934</v>
       </c>
       <c r="K6">
-        <v>1.038370741632611</v>
+        <v>1.035268027597737</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673453</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.047029344350973</v>
+        <v>1.040168339592811</v>
       </c>
       <c r="N6">
-        <v>1.01416209280164</v>
+        <v>1.011815797608931</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.025620976721397</v>
+        <v>1.003595309550378</v>
       </c>
       <c r="D7">
-        <v>1.035751312201414</v>
+        <v>1.024862163905981</v>
       </c>
       <c r="E7">
-        <v>0.9943035907982488</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.044389381727955</v>
+        <v>1.029660867944771</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033206288468367</v>
+        <v>1.045344514191891</v>
       </c>
       <c r="J7">
-        <v>1.030200821291028</v>
+        <v>1.022901434743526</v>
       </c>
       <c r="K7">
-        <v>1.038235214709175</v>
+        <v>1.034666602296718</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462087</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.046851629105184</v>
+        <v>1.039411135831444</v>
       </c>
       <c r="N7">
-        <v>1.014114775321646</v>
+        <v>1.01161078317527</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.024552522004941</v>
+        <v>0.99864123051551</v>
       </c>
       <c r="D8">
-        <v>1.034933581924727</v>
+        <v>1.021197566354767</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674301</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.043397906462511</v>
+        <v>1.025337098313404</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033058697278089</v>
+        <v>1.0443181426457</v>
       </c>
       <c r="J8">
-        <v>1.029606351597084</v>
+        <v>1.020288921340509</v>
       </c>
       <c r="K8">
-        <v>1.037668082856387</v>
+        <v>1.032097859011325</v>
       </c>
       <c r="L8">
-        <v>0.995817528259106</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.046108910176356</v>
+        <v>1.036184460543462</v>
       </c>
       <c r="N8">
-        <v>1.013916907713642</v>
+        <v>1.010736203352206</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.022674590776461</v>
+        <v>0.9895513271279353</v>
       </c>
       <c r="D9">
-        <v>1.033495593468632</v>
+        <v>1.014492219489935</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.041656405687771</v>
+        <v>1.017437557370063</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032789676328352</v>
+        <v>1.042357096249894</v>
       </c>
       <c r="J9">
-        <v>1.028558610878733</v>
+        <v>1.015478528141921</v>
       </c>
       <c r="K9">
-        <v>1.03666636264437</v>
+        <v>1.027354466283139</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.044800641281617</v>
+        <v>1.030253918556958</v>
       </c>
       <c r="N9">
-        <v>1.013567937647762</v>
+        <v>1.009125062775718</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.021425981102837</v>
+        <v>0.9832265749451456</v>
       </c>
       <c r="D10">
-        <v>1.032539036622451</v>
+        <v>1.009842463930139</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.040499298393637</v>
+        <v>1.011966963870595</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032604356429939</v>
+        <v>1.040942444777583</v>
       </c>
       <c r="J10">
-        <v>1.027860053676367</v>
+        <v>1.0121218634588</v>
       </c>
       <c r="K10">
-        <v>1.035997046557271</v>
+        <v>1.024036254880545</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.043928898153579</v>
+        <v>1.026123461167512</v>
       </c>
       <c r="N10">
-        <v>1.013335115525263</v>
+        <v>1.008000399249996</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.020886134088841</v>
+        <v>0.9804196719319663</v>
       </c>
       <c r="D11">
-        <v>1.032125359690579</v>
+        <v>1.007783429165726</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.03999920791617</v>
+        <v>1.009545984360695</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032522703198482</v>
+        <v>1.040303291500642</v>
       </c>
       <c r="J11">
-        <v>1.02755757195652</v>
+        <v>1.010630327658804</v>
       </c>
       <c r="K11">
-        <v>1.035706886867343</v>
+        <v>1.022560039152215</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.043551548783923</v>
+        <v>1.024290095134049</v>
       </c>
       <c r="N11">
-        <v>1.013234265210222</v>
+        <v>1.007500579931051</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.020685734174174</v>
+        <v>0.9793663189978229</v>
       </c>
       <c r="D12">
-        <v>1.031971781515322</v>
+        <v>1.007011475082021</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.039813596101326</v>
+        <v>1.008638549968725</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03249216264895</v>
+        <v>1.040061780665766</v>
       </c>
       <c r="J12">
-        <v>1.027445217812993</v>
+        <v>1.010070352673081</v>
       </c>
       <c r="K12">
-        <v>1.035599058792219</v>
+        <v>1.022005567921336</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.043411404372365</v>
+        <v>1.023602099488032</v>
       </c>
       <c r="N12">
-        <v>1.013196799854351</v>
+        <v>1.00731292111347</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.020728715028663</v>
+        <v>0.9795927611874725</v>
       </c>
       <c r="D13">
-        <v>1.032004720910188</v>
+        <v>1.00717738943135</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.039853403912612</v>
+        <v>1.008833573252876</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032498723232991</v>
+        <v>1.040113772878128</v>
       </c>
       <c r="J13">
-        <v>1.027469318090278</v>
+        <v>1.010190742421523</v>
       </c>
       <c r="K13">
-        <v>1.035622190512851</v>
+        <v>1.022124785328705</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.043441464893821</v>
+        <v>1.023749998135563</v>
       </c>
       <c r="N13">
-        <v>1.01320483652173</v>
+        <v>1.007353266501692</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.020869566444035</v>
+        <v>0.9803328235720306</v>
       </c>
       <c r="D14">
-        <v>1.03211266323035</v>
+        <v>1.007719766446714</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.039983862234626</v>
+        <v>1.009471144322041</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032520183005416</v>
+        <v>1.040283412421791</v>
       </c>
       <c r="J14">
-        <v>1.027548284699266</v>
+        <v>1.01058416275987</v>
       </c>
       <c r="K14">
-        <v>1.035697974773524</v>
+        <v>1.022514332927172</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.043539963986183</v>
+        <v>1.024233369611662</v>
       </c>
       <c r="N14">
-        <v>1.013231168412693</v>
+        <v>1.007485109322233</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.020956366040293</v>
+        <v>0.9807873615349444</v>
       </c>
       <c r="D15">
-        <v>1.032179180696573</v>
+        <v>1.008052988574299</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.040064261065044</v>
+        <v>1.009862879299048</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032533377153811</v>
+        <v>1.040387386311222</v>
       </c>
       <c r="J15">
-        <v>1.027596938809689</v>
+        <v>1.010825766145261</v>
       </c>
       <c r="K15">
-        <v>1.035744661395731</v>
+        <v>1.022753525843481</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.043600655222987</v>
+        <v>1.024530254782002</v>
       </c>
       <c r="N15">
-        <v>1.013247391703529</v>
+        <v>1.007566074190763</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.021461826167857</v>
+        <v>0.9834113807591311</v>
       </c>
       <c r="D16">
-        <v>1.032566502089342</v>
+        <v>1.009978129987107</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.040532507836093</v>
+        <v>1.012126508759283</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032609745870953</v>
+        <v>1.040984294064393</v>
       </c>
       <c r="J16">
-        <v>1.027880128465123</v>
+        <v>1.012220030071617</v>
       </c>
       <c r="K16">
-        <v>1.036016296430655</v>
+        <v>1.024133377815742</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.043953944289978</v>
+        <v>1.026244168519164</v>
       </c>
       <c r="N16">
-        <v>1.013341807893359</v>
+        <v>1.008033293880838</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.021779105820453</v>
+        <v>0.9850387501023028</v>
       </c>
       <c r="D17">
-        <v>1.032809598765559</v>
+        <v>1.011173305080204</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.040826481074927</v>
+        <v>1.013532223230409</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03265727335459</v>
+        <v>1.041351525106121</v>
       </c>
       <c r="J17">
-        <v>1.028057766287642</v>
+        <v>1.013084261260647</v>
       </c>
       <c r="K17">
-        <v>1.036186595528224</v>
+        <v>1.024988221521943</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.044175586856561</v>
+        <v>1.027307072050593</v>
       </c>
       <c r="N17">
-        <v>1.013401023154667</v>
+        <v>1.008322880711458</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.021964247635334</v>
+        <v>0.9859814172752479</v>
       </c>
       <c r="D18">
-        <v>1.032951442840052</v>
+        <v>1.011866044469743</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.040998041690161</v>
+        <v>1.014347142069441</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032684859385194</v>
+        <v>1.04156316563792</v>
       </c>
       <c r="J18">
-        <v>1.028161379158533</v>
+        <v>1.013584695051992</v>
       </c>
       <c r="K18">
-        <v>1.036285895072883</v>
+        <v>1.025483050454246</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.044304878788895</v>
+        <v>1.027922736817305</v>
       </c>
       <c r="N18">
-        <v>1.013435558832622</v>
+        <v>1.008490558992367</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.0220273893808</v>
+        <v>0.9863017459020292</v>
       </c>
       <c r="D19">
-        <v>1.03299981640749</v>
+        <v>1.012101514915411</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.041056554796324</v>
+        <v>1.014624168341782</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032694242428378</v>
+        <v>1.041634898592185</v>
       </c>
       <c r="J19">
-        <v>1.028196708384935</v>
+        <v>1.01375471645225</v>
       </c>
       <c r="K19">
-        <v>1.036319748003704</v>
+        <v>1.025651138428351</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.044348965906557</v>
+        <v>1.028131939493012</v>
       </c>
       <c r="N19">
-        <v>1.013447333984417</v>
+        <v>1.008547526073132</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.021745056640046</v>
+        <v>0.9848648297116761</v>
       </c>
       <c r="D20">
-        <v>1.032783511617724</v>
+        <v>1.011045529724166</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.040794931100697</v>
+        <v>1.013381924013154</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032652188161881</v>
+        <v>1.041312390128955</v>
       </c>
       <c r="J20">
-        <v>1.028038707448437</v>
+        <v>1.012991917390091</v>
       </c>
       <c r="K20">
-        <v>1.036168327453562</v>
+        <v>1.024896898121874</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.044151805497126</v>
+        <v>1.027193480106642</v>
       </c>
       <c r="N20">
-        <v>1.013394670284658</v>
+        <v>1.00829193883464</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.020828085795185</v>
+        <v>0.9801151943307166</v>
       </c>
       <c r="D21">
-        <v>1.032080874687326</v>
+        <v>1.007560249249597</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.039945441516611</v>
+        <v>1.009283623989307</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032513869453609</v>
+        <v>1.040233571878289</v>
       </c>
       <c r="J21">
-        <v>1.027525030962003</v>
+        <v>1.010468476511496</v>
       </c>
       <c r="K21">
-        <v>1.035675659562046</v>
+        <v>1.022399792151129</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.043510957893917</v>
+        <v>1.024091224237217</v>
       </c>
       <c r="N21">
-        <v>1.013223414462976</v>
+        <v>1.00744634083907</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.020252264080576</v>
+        <v>0.9770664825499332</v>
       </c>
       <c r="D22">
-        <v>1.031639561951374</v>
+        <v>1.005327474656961</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.039412168212454</v>
+        <v>1.006659383090827</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032425683117767</v>
+        <v>1.039531493471853</v>
       </c>
       <c r="J22">
-        <v>1.027202068805302</v>
+        <v>1.008847327057159</v>
       </c>
       <c r="K22">
-        <v>1.035365612020102</v>
+        <v>1.020794126885191</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.043108147832231</v>
+        <v>1.022100060662925</v>
       </c>
       <c r="N22">
-        <v>1.013115710096058</v>
+        <v>1.006903046448244</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.020557449786283</v>
+        <v>0.9786887515788012</v>
       </c>
       <c r="D23">
-        <v>1.031873465643722</v>
+        <v>1.006515135358284</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.039694786665835</v>
+        <v>1.008055160197328</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032472547756922</v>
+        <v>1.039905969357711</v>
       </c>
       <c r="J23">
-        <v>1.027373276088232</v>
+        <v>1.009710085967673</v>
       </c>
       <c r="K23">
-        <v>1.035530000875299</v>
+        <v>1.021648774487041</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.04332167346558</v>
+        <v>1.023159559446522</v>
       </c>
       <c r="N23">
-        <v>1.013172808814125</v>
+        <v>1.007192186245376</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.021760441758365</v>
+        <v>0.9849434370554606</v>
       </c>
       <c r="D24">
-        <v>1.032795299123006</v>
+        <v>1.01110327944209</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.040809186895105</v>
+        <v>1.013449853220442</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032654486361716</v>
+        <v>1.041330081441524</v>
       </c>
       <c r="J24">
-        <v>1.028047319318482</v>
+        <v>1.01303365489697</v>
       </c>
       <c r="K24">
-        <v>1.036176582112425</v>
+        <v>1.024938174922621</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.044162551234261</v>
+        <v>1.027244820713614</v>
       </c>
       <c r="N24">
-        <v>1.013397540884287</v>
+        <v>1.008305923941274</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.023159499008532</v>
+        <v>0.9919462233375732</v>
       </c>
       <c r="D25">
-        <v>1.033866985783518</v>
+        <v>1.016256369326856</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.042105948281079</v>
+        <v>1.019514579435328</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032860280514781</v>
+        <v>1.042882615950253</v>
       </c>
       <c r="J25">
-        <v>1.028829493792954</v>
+        <v>1.016747702690433</v>
       </c>
       <c r="K25">
-        <v>1.036925602398836</v>
+        <v>1.028607460711163</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.045138790749174</v>
+        <v>1.031817325601244</v>
       </c>
       <c r="N25">
-        <v>1.013658187715893</v>
+        <v>1.009550226647324</v>
       </c>
     </row>
   </sheetData>
